--- a/src/test/resources/org/bbreak/excella/reports/tag/BlockRowRepeatParamParserTest.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/BlockRowRepeatParamParserTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15480" windowHeight="9060" firstSheet="15" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15480" windowHeight="9060" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,15 @@
     <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
     <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
     <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="127">
   <si>
     <t>1E</t>
     <phoneticPr fontId="2"/>
@@ -486,6 +488,30 @@
   </si>
   <si>
     <t>$C[]{B}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$BR[]{BR1,fromCell=1:0,toCell=3:3,minRepeatNum=2}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${D}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${D2}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$BR[]{BR1,fromCell=1:0,toCell=3:3,minRepeatNum=3}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2012,7 +2038,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2267,7 +2293,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2326,7 +2352,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2334,7 +2360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2385,7 +2411,193 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
